--- a/V2.2 (05-2023)/Homog.Dir.B.C. u and p/K constant/Test 1 (simple solutions without t)/Numerical errors/mesh0.xlsx
+++ b/V2.2 (05-2023)/Homog.Dir.B.C. u and p/K constant/Test 1 (simple solutions without t)/Numerical errors/mesh0.xlsx
@@ -550,7 +550,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -695,13 +695,27 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="27"/>
+      <c r="B6" s="26">
+        <v>54.390999999999998</v>
+      </c>
+      <c r="C6" s="26">
+        <v>54.390999999999998</v>
+      </c>
+      <c r="D6" s="27">
+        <v>2008.7</v>
+      </c>
+      <c r="E6" s="27">
+        <v>2008.7</v>
+      </c>
+      <c r="F6" s="26">
+        <v>95.484999999999999</v>
+      </c>
+      <c r="G6" s="26">
+        <v>2453.4</v>
+      </c>
+      <c r="H6" s="27">
+        <v>9051.2999999999993</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -837,33 +851,33 @@
       <c r="A12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="32" t="e">
+      <c r="B12" s="32">
         <f t="shared" ref="B12:H12" si="3">B5/B6</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C12" s="32" t="e">
+        <v>0.2496368884558107</v>
+      </c>
+      <c r="C12" s="32">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D12" s="33" t="e">
+        <v>0.2496368884558107</v>
+      </c>
+      <c r="D12" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E12" s="33" t="e">
+        <v>0.24858366107432667</v>
+      </c>
+      <c r="E12" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F12" s="32" t="e">
+        <v>0.24858366107432667</v>
+      </c>
+      <c r="F12" s="32">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G12" s="32" t="e">
+        <v>0.24781902916688486</v>
+      </c>
+      <c r="G12" s="32">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H12" s="33" t="e">
+        <v>0.24815358278307656</v>
+      </c>
+      <c r="H12" s="33">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.24890347242937483</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
@@ -992,33 +1006,33 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
-      <c r="B18" s="34" t="e">
+      <c r="B18" s="34">
         <f t="shared" ref="B18:H18" si="7">LN(B12)/LN(2)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C18" s="34" t="e">
+        <v>-2.0020969601261385</v>
+      </c>
+      <c r="C18" s="34">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D18" s="35" t="e">
+        <v>-2.0020969601261385</v>
+      </c>
+      <c r="D18" s="35">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E18" s="35" t="e">
+        <v>-2.0081966209494961</v>
+      </c>
+      <c r="E18" s="35">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F18" s="34" t="e">
+        <v>-2.0081966209494961</v>
+      </c>
+      <c r="F18" s="34">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G18" s="34" t="e">
+        <v>-2.0126411235886357</v>
+      </c>
+      <c r="G18" s="34">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H18" s="35" t="e">
+        <v>-2.0106948108102034</v>
+      </c>
+      <c r="H18" s="35">
         <f t="shared" si="7"/>
-        <v>#DIV/0!</v>
+        <v>-2.0063417375226358</v>
       </c>
     </row>
   </sheetData>
